--- a/not_recognized.xlsx
+++ b/not_recognized.xlsx
@@ -6,16 +6,32 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="receipt6" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="receipt2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="receipt4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="receipt7" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="IMG_6561" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="receipt8" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="receipt10" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="receipt2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="receipt4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="receipt7" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="IMG_6561" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="receipt8" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="receipt10" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="receipt6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="receipt18" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="receipt22" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="receipt23" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="receipt24" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="receipt25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="receipt27" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="receipt29" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="receipt33" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="receipt34" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="receipt35" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="receipt36" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="receipt26" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="receipt9" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="receipt11" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="receipt14" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="receipt21" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -32,6 +48,7 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -453,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,264 +481,1134 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Product</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KNUSP. DSCHUNGEL </t>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>09,690 kg x 2,19 EUR/kg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">HEE \ </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+          <t>9,196 kg x 1,79 EUR/kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>zu zahlen 19,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kreditkarte 10,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>MwSt% MwSt + Netto = Brutto€ 7% 0,68 9,73 10,41</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0,240 kg x 1,99 EUR/kg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kreditkarte 10,41</t>
+          <t>0,252 kg x 2,19 EUR/kg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>zu zahlen 19,41</t>
+          <t xml:space="preserve">Hohes © Multivitamine” </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>9,196 kg x 1,79 EUR/kg</t>
+          <t>N .€ ————-k-«-- — vn n an v zu /ahlen ‘9 „12,10</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>09,690 kg x 2,19 EUR/kg</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gesamt </t>
+          <t>Kart3 / 12,10</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WSTX MwST 4# Netto = _ Bruttü AM X 0,748 4.10,62 11,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B 19 % 012 1:0,62 0,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Summe 0‚86 11,24 12,10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FK LAKTOSEFR. 70%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trinkgeld Für Den Fahrer </t>
+          <t>CHICOREE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liefergebühr </t>
+          <t>MINUSL SCHMAND</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zwischensumme </t>
+          <t>COOKING SOYA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>n CLASSIC Spülmaschinentabs 77 St. ' ﬁ 1x The Good Roll x Gorillas 2.</t>
+          <t>BACKOFENF. KNUSPR</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">i 1x Magnum Mandel Vegan, </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None D 1x Nucao Bio Almond Sea Salt </t>
+          <t>HIMB. - HEIDELB. MX</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SOJA GRANULAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TOIPA 4LG.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SCHAFKAESE 50%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gesamt </t>
+          <t>LMUV NATURJOG.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trinkgeld Für Den Fahrer </t>
+          <t>SCHLEFI BORDELAI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liefergebühr </t>
+          <t>TK JUNGE ERBSEN</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zwischensumme </t>
+          <t>TOIPA 4LG.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auberginen kg </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0,348 kg x 3,43 HWW/kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0,%94 kg x 0,99 WM/Kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1,50 kg x 0,89 ER/kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fenchel kg </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">9 Mittelscharf Tönnchen 1048 ' 1x Magnum Mandel Vegan, </t>
+          <t>0,524 kg x 2,%49 ER/kg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">a 1x Nucao Bio White Crunchy Nougat </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>. Cäaptat.TeaRogibos sort.5 0,89 8</t>
+          <t>E MIR AEEIE RE PF zu zahlen 33,41</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bio Kasseler 2,40)€</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>zu zahlen 9,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Karte 9,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MWSTX MWST + Netto Brutto RT 0,45 6,60 7,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B 19% 0,3] 1,63 1,%4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Summe 0,77 8,23 9,00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1x Meatless Farm Hack </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">X Aubergine </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">X Oliven </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0,218 kg x 1,79 EUR/kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0,404 kg x 2,29 EUR/kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Zu zahlen 9‚4] Karte 9,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MWSTX MWST + Netto =  Brutto AGZX 0,62 8,85 9,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Summe 0,62 8,85 9,47</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Banane Fair. kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kräuter Petersilie</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Blattspinat</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rubius</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rubius würzig 180g</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bioland Mozzar.ger.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cornflakes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Haferfl. Zart</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Waldhonig 500g</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bio Passierte Tomat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Feigen getrocknet</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Eco Waschm. Pomegr.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Eco Waschm. Aloe V.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Flüssigs.Holunderb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mundspülung X-Tra</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gesamt </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trinkgeld Für Den Fahrer </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liefergebühr </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zwischensumme </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>n CLASSIC Spülmaschinentabs 77 St. ' ﬁ 1x The Good Roll x Gorillas 2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i 1x Magnum Mandel Vegan, </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Vegola Rapsoel 1L</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Y LS Holland. 250ml [13]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BioBB Dressing Sort.200m</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Grafenst.Boonekamp 4x20m</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FF Chipsfr. sort. 175g</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FFChipsf. ungar. 175g</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Banane Fair. kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kräuter Petersilie</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Blattspinat</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rubius</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rubius würzig 180g</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bioland Mozzar.ger.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cornflakes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Haferfl. Zart</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Waldhonig 500g</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bio Passierte Tomat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Feigen getrocknet</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Eco Waschm. Pomegr.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Eco Waschm. Aloe V.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Flüssigs.Holunderb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mundspülung X-Tra</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">None D 1x Nucao Bio Almond Sea Salt </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gesamt </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trinkgeld Für Den Fahrer </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liefergebühr </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zwischensumme </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9 Mittelscharf Tönnchen 1048 ' 1x Magnum Mandel Vegan, </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">a 1x Nucao Bio White Crunchy Nougat </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>. Cäaptat.TeaRogibos sort.5 0,89 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Chespienen braun 2509 UK 1,298</t>
         </is>
       </c>
@@ -731,7 +1618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -806,7 +1693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -858,4 +1745,110 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BIO Eä£€ 45% </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HEE \ </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KNUSP. DSCHUNGEL </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hohes C Multivitamin</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/not_recognized.xlsx
+++ b/not_recognized.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="600" firstSheet="8" activeTab="23" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="receipt2" sheetId="1" state="visible" r:id="rId1"/>
@@ -29,6 +29,11 @@
     <sheet name="receipt11" sheetId="21" state="visible" r:id="rId21"/>
     <sheet name="receipt14" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="receipt21" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="IMG_6681" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="receipt30" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="WhatsApp_Image_2022-02-05_at_12" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="WhatsApp_Image_2022-02-05_at_13" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="IMG_6697" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -38,7 +43,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,6 +54,11 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -64,12 +74,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -97,12 +122,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,7 +504,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -537,7 +565,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -619,7 +647,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -704,7 +732,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>product</t>
         </is>
@@ -762,7 +790,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -837,7 +865,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -905,7 +933,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -938,7 +966,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -978,7 +1006,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -1004,7 +1032,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -1068,7 +1096,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>product</t>
         </is>
@@ -1264,7 +1292,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -1304,7 +1332,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -1358,7 +1386,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -1384,7 +1412,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -1503,82 +1531,239 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None D 1x Nucao Bio Almond Sea Salt </t>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SB Hackfleischgem 500gQS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gesamt </t>
+          <t>GL SK Kraeuter oft 200g</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BioBG Dressing sort.200m</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>W.I.Gran/Parm sort.ab125</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trinkgeld Für Den Fahrer </t>
+          <t>Minipflaumentom. 1 kg VK</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>&gt;Gymnastikb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>41g. Topa 10x160B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Recyc. Toilettenp.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liefergebühr </t>
+          <t>Knabber-Spaß</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zwischensumme </t>
+          <t>Knödel</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">9 Mittelscharf Tönnchen 1048 ' 1x Magnum Mandel Vegan, </t>
+          <t>Tiroler Kaminwurze</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">a 1x Nucao Bio White Crunchy Nougat </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>Eisschale 1 Liter</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Narzissen</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Narzissen</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Tyrolini</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Müllbeutel 501</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Müllbeutel 501</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FF Chipsfr. Ungar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>KNORR Feinschm.Sau</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Vollkorntoast</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>WC-Reiniger-Tabs</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Feinschmeckersauce</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1590,116 +1775,177 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>. Cäaptat.TeaRogibos sort.5 0,89 8</t>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>WASSERMEL CRIMS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chespienen braun 2509 UK 1,298</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">! 1x Sweet Family Feinster Zucker </t>
+          <t>TOM SUPERSWEET</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Minze 25g VKE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zwischensumme </t>
+          <t>Bio BB Zitro.sort.200%)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">‘ 1x FritzKola zuckerfrei, Koffeinhaltig </t>
+          <t>Korna.Weizenm.1/2Pal.1kg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>- 1x BESH Hackfleisch gemischt, 4.</t>
+          <t>Unifera Backhefe fuer500</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ﬁ 1x Iycka Pizza Verdure, tiefgefroren </t>
+          <t>Bio Rispentos. 500g VKE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">None D 1x Nucao Bio Almond Sea Salt </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gesamt </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trinkgeld Für Den Fahrer </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liefergebühr </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zwischensumme </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">#® _ 1x Zwiebeln rot </t>
+          <t xml:space="preserve">9 Mittelscharf Tönnchen 1048 ' 1x Magnum Mandel Vegan, </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">%&gt; 1x Bio Möhren </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
+          <t xml:space="preserve">a 1x Nucao Bio White Crunchy Nougat </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1717,13 +1963,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gesamt </t>
+          <t>. Cäaptat.TeaRogibos sort.5 0,89 8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Chespienen braun 2509 UK 1,298</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5x Clungene COVID-19 Rapid Antigen-Schnelltests</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gesamt </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t xml:space="preserve">Trinkgeld Für Den Fahrer </t>
         </is>
       </c>
@@ -1753,7 +2072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1762,51 +2081,63 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BIO PELATI POLPA FINE KIRSCHTOMATEN CHAKALAKA TORTILLAS CHILI DIP CHEESE KNUSP. DSCHUNGEL</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BIO Eä£€ 45% </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HEE \ </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KNUSP. DSCHUNGEL </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -1815,32 +2146,6 @@
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>

--- a/not_recognized.xlsx
+++ b/not_recognized.xlsx
@@ -35,6 +35,7 @@
     <sheet name="WhatsApp_Image_2022-02-05_at_13" sheetId="27" state="visible" r:id="rId27"/>
     <sheet name="IMG_6697" sheetId="28" state="visible" r:id="rId28"/>
     <sheet name="IMG_6623" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="WhatsApp_Image_2022-02-09_at_12" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -514,9 +515,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-    </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1490,38 +1489,45 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BioBG Dressing sort.200m</t>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SB. R-Hackfleisch 500gQS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W.I.Gran/Parm sort.ab125</t>
+          <t>BioBB Dressing surt.200s</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>M.I.Gran/Parm sort.ab125</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Minipflaumentom. 1 kg VK</t>
         </is>
       </c>
@@ -1747,14 +1753,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bio BB Zitro.sort.200%)</t>
+          <t>Bio BB Zitro.sort.200ml</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Korna.Weizenm.1/2Pal.1kg</t>
+          <t>Korna.Weizenm.1/2Pal. 1kg</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1774,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bio Rispentos. 500g VKE</t>
+          <t>Bio Rispentom. 500g VKE</t>
         </is>
       </c>
     </row>
@@ -1899,6 +1905,39 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ostmann Basilikum gerebelt</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/not_recognized.xlsx
+++ b/not_recognized.xlsx
@@ -500,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1760,7 +1759,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Korna.Weizenm.1/2Pal. 1kg</t>
+          <t>Korna.Weizenm. 1/2Pal. 1kg</t>
         </is>
       </c>
     </row>
@@ -2071,45 +2070,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CHAKALAKA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DIP CHEESE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KNUSP. DSCHUNGEL</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BIO PELATI POLPA FINE KIRSCHTOMATEN CHAKALAKA TORTILLAS CHILI DIP CHEESE KNUSP. DSCHUNGEL</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2119,32 +2158,6 @@
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>

--- a/not_recognized.xlsx
+++ b/not_recognized.xlsx
@@ -500,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,9 @@
           <t>product</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1450,14 +1453,14 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>product</t>
         </is>

--- a/not_recognized.xlsx
+++ b/not_recognized.xlsx
@@ -515,9 +515,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-    </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/not_recognized.xlsx
+++ b/not_recognized.xlsx
@@ -500,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
